--- a/slides/calibration_table_1.xlsx
+++ b/slides/calibration_table_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simeonalder/Dropbox/Work/Research/GitHub/teachers/slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC0D05D-E066-4D41-9B7C-7CEDEB79FB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3DCFD6-12D7-3F4B-B30F-69A64890ED07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29140" yWindow="6700" windowWidth="21060" windowHeight="19880" activeTab="7" xr2:uid="{EBC51016-824C-EA4E-AF49-0EE0EBBB4168}"/>
+    <workbookView xWindow="28020" yWindow="6460" windowWidth="21060" windowHeight="19880" firstSheet="1" activeTab="8" xr2:uid="{EBC51016-824C-EA4E-AF49-0EE0EBBB4168}"/>
   </bookViews>
   <sheets>
     <sheet name="benchmark" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="counter_1" sheetId="6" r:id="rId6"/>
     <sheet name="counter_2" sheetId="7" r:id="rId7"/>
     <sheet name="counter_3" sheetId="8" r:id="rId8"/>
+    <sheet name="counter_4" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="7">
   <si>
     <t>\widetilde{H}_T^*</t>
   </si>
@@ -1622,7 +1623,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1831,7 +1832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B5499C-4563-8549-B05D-EBC2D82A2546}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -2031,4 +2032,208 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600AAC82-F812-D548-BA8A-D3A9F98951A5}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>1970</v>
+      </c>
+      <c r="C1">
+        <f>B1+20</f>
+        <v>1990</v>
+      </c>
+      <c r="D1">
+        <f>C1+20</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <f>B9/benchmark!$B9</f>
+        <v>0.78072648433538228</v>
+      </c>
+      <c r="C2" s="2">
+        <f>C9/benchmark!$B9</f>
+        <v>0.38538499078550648</v>
+      </c>
+      <c r="D2" s="2">
+        <f>D9/benchmark!$B9</f>
+        <v>0.60827209723125286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <f>B10/benchmark!$B10</f>
+        <v>1.0209500179770385</v>
+      </c>
+      <c r="C3" s="2">
+        <f>C10/benchmark!$B10</f>
+        <v>0.50396498795027778</v>
+      </c>
+      <c r="D3" s="2">
+        <f>D10/benchmark!$B10</f>
+        <v>0.79543274253317697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B11/B9/(benchmark!$B11/benchmark!$B9)</f>
+        <v>1.0773970809200353</v>
+      </c>
+      <c r="C4" s="2">
+        <f>C11/C9/(benchmark!$B11/benchmark!$B9)</f>
+        <v>0.89608759502958735</v>
+      </c>
+      <c r="D4" s="2">
+        <f>D11/D9/(benchmark!$B11/benchmark!$B9)</f>
+        <v>0.93147595149515461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f>B12/B10/(benchmark!$B12/benchmark!$B10)</f>
+        <v>0.92772244876719612</v>
+      </c>
+      <c r="C5" s="2">
+        <f>C12/C10/(benchmark!$B12/benchmark!$B10)</f>
+        <v>0.77160091919021745</v>
+      </c>
+      <c r="D5" s="2">
+        <f>D12/D10/(benchmark!$B12/benchmark!$B10)</f>
+        <v>0.8020730388009808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <f>B13/benchmark!$B13</f>
+        <v>0.89101348597436913</v>
+      </c>
+      <c r="C6" s="2">
+        <f>C13/benchmark!$B13</f>
+        <v>0.36580937599104629</v>
+      </c>
+      <c r="D6" s="2">
+        <f>D13/benchmark!$B13</f>
+        <v>0.60017667416655718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1970</v>
+      </c>
+      <c r="C8">
+        <f>B8+20</f>
+        <v>1990</v>
+      </c>
+      <c r="D8">
+        <f>C8+20</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.32723502337015E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.5515448433536103E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.03406256529313E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.32723502337015E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.5515448433536103E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.03406256529313E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3.1206384080743801E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.28119136996341E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.10202697323526E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3.1206384080743801E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.28119136996341E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.10202697323526E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.56031920403719E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6.4059568498170804E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.05101348661763E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>